--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H2">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I2">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J2">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.048502333333333</v>
+        <v>1.121657333333333</v>
       </c>
       <c r="N2">
-        <v>9.145507</v>
+        <v>3.364972</v>
       </c>
       <c r="O2">
-        <v>0.02767295150267144</v>
+        <v>0.01078859740606296</v>
       </c>
       <c r="P2">
-        <v>0.02767295150267144</v>
+        <v>0.01078859740606296</v>
       </c>
       <c r="Q2">
-        <v>18.51090552180567</v>
+        <v>1.174226795346222</v>
       </c>
       <c r="R2">
-        <v>166.598149696251</v>
+        <v>10.568041158116</v>
       </c>
       <c r="S2">
-        <v>0.0001091421004432715</v>
+        <v>7.417217091160417E-06</v>
       </c>
       <c r="T2">
-        <v>0.0001091421004432715</v>
+        <v>7.417217091160417E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H3">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I3">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J3">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>251.486313</v>
       </c>
       <c r="O3">
-        <v>0.7609603866942148</v>
+        <v>0.8063022765396375</v>
       </c>
       <c r="P3">
-        <v>0.7609603866942148</v>
+        <v>0.8063022765396375</v>
       </c>
       <c r="Q3">
-        <v>509.0192790810012</v>
+        <v>87.75762989630434</v>
       </c>
       <c r="R3">
-        <v>4581.17351172901</v>
+        <v>789.8186690667389</v>
       </c>
       <c r="S3">
-        <v>0.00300122720736576</v>
+        <v>0.0005543370283546248</v>
       </c>
       <c r="T3">
-        <v>0.00300122720736576</v>
+        <v>0.0005543370283546248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.072131000000001</v>
+        <v>1.046867666666667</v>
       </c>
       <c r="H4">
-        <v>18.216393</v>
+        <v>3.140603</v>
       </c>
       <c r="I4">
-        <v>0.003943999267036455</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="J4">
-        <v>0.003943999267036454</v>
+        <v>0.000687505225377314</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.28453333333333</v>
+        <v>19.0165</v>
       </c>
       <c r="N4">
-        <v>69.8536</v>
+        <v>57.0495</v>
       </c>
       <c r="O4">
-        <v>0.2113666618031137</v>
+        <v>0.1829091260542996</v>
       </c>
       <c r="P4">
-        <v>0.2113666618031138</v>
+        <v>0.1829091260542996</v>
       </c>
       <c r="Q4">
-        <v>141.3867366738667</v>
+        <v>19.90775898316667</v>
       </c>
       <c r="R4">
-        <v>1272.4806300648</v>
+        <v>179.1698308485</v>
       </c>
       <c r="S4">
-        <v>0.0008336299592274228</v>
+        <v>0.0001257509799315288</v>
       </c>
       <c r="T4">
-        <v>0.0008336299592274227</v>
+        <v>0.0001257509799315288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J5">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>3.048502333333333</v>
+        <v>1.121657333333333</v>
       </c>
       <c r="N5">
-        <v>9.145507</v>
+        <v>3.364972</v>
       </c>
       <c r="O5">
-        <v>0.02767295150267144</v>
+        <v>0.01078859740606296</v>
       </c>
       <c r="P5">
-        <v>0.02767295150267144</v>
+        <v>0.01078859740606296</v>
       </c>
       <c r="Q5">
-        <v>4514.380187944216</v>
+        <v>1661.008288527582</v>
       </c>
       <c r="R5">
-        <v>40629.42169149795</v>
+        <v>14949.07459674824</v>
       </c>
       <c r="S5">
-        <v>0.02661722492891102</v>
+        <v>0.0104920609162162</v>
       </c>
       <c r="T5">
-        <v>0.02661722492891101</v>
+        <v>0.0104920609162162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J6">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>251.486313</v>
       </c>
       <c r="O6">
-        <v>0.7609603866942148</v>
+        <v>0.8063022765396375</v>
       </c>
       <c r="P6">
-        <v>0.7609603866942148</v>
+        <v>0.8063022765396375</v>
       </c>
       <c r="Q6">
         <v>124137.9869859963</v>
       </c>
       <c r="R6">
-        <v>1117241.882873967</v>
+        <v>1117241.882873966</v>
       </c>
       <c r="S6">
-        <v>0.7319296524144062</v>
+        <v>0.7841401698411202</v>
       </c>
       <c r="T6">
-        <v>0.731929652414406</v>
+        <v>0.7841401698411202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>4442.555420000001</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9618498744646554</v>
+        <v>0.9725138978974124</v>
       </c>
       <c r="J7">
-        <v>0.9618498744646552</v>
+        <v>0.9725138978974125</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.28453333333333</v>
+        <v>19.0165</v>
       </c>
       <c r="N7">
-        <v>69.8536</v>
+        <v>57.0495</v>
       </c>
       <c r="O7">
-        <v>0.2113666618031137</v>
+        <v>0.1829091260542996</v>
       </c>
       <c r="P7">
-        <v>0.2113666618031138</v>
+        <v>0.1829091260542996</v>
       </c>
       <c r="Q7">
-        <v>34480.94325405689</v>
+        <v>28160.61838147667</v>
       </c>
       <c r="R7">
-        <v>310328.489286512</v>
+        <v>253445.56543329</v>
       </c>
       <c r="S7">
-        <v>0.2033029971213382</v>
+        <v>0.1778816671400761</v>
       </c>
       <c r="T7">
-        <v>0.2033029971213382</v>
+        <v>0.1778816671400761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H8">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I8">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J8">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>3.048502333333333</v>
+        <v>1.121657333333333</v>
       </c>
       <c r="N8">
-        <v>9.145507</v>
+        <v>3.364972</v>
       </c>
       <c r="O8">
-        <v>0.02767295150267144</v>
+        <v>0.01078859740606296</v>
       </c>
       <c r="P8">
-        <v>0.02767295150267144</v>
+        <v>0.01078859740606296</v>
       </c>
       <c r="Q8">
-        <v>160.5442417070707</v>
+        <v>45.7707510712111</v>
       </c>
       <c r="R8">
-        <v>1444.898175363636</v>
+        <v>411.9367596408999</v>
       </c>
       <c r="S8">
-        <v>0.0009465844733171512</v>
+        <v>0.0002891192727555978</v>
       </c>
       <c r="T8">
-        <v>0.000946584473317151</v>
+        <v>0.0002891192727555978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H9">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I9">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J9">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>251.486313</v>
       </c>
       <c r="O9">
-        <v>0.7609603866942148</v>
+        <v>0.8063022765396375</v>
       </c>
       <c r="P9">
-        <v>0.7609603866942148</v>
+        <v>0.8063022765396375</v>
       </c>
       <c r="Q9">
-        <v>4414.701057064636</v>
+        <v>3420.746868068941</v>
       </c>
       <c r="R9">
-        <v>39732.30951358172</v>
+        <v>30786.72181262047</v>
       </c>
       <c r="S9">
-        <v>0.02602950707244303</v>
+        <v>0.02160776967016268</v>
       </c>
       <c r="T9">
-        <v>0.02602950707244302</v>
+        <v>0.02160776967016268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.663316</v>
+        <v>40.80635833333333</v>
       </c>
       <c r="H10">
-        <v>157.989948</v>
+        <v>122.419075</v>
       </c>
       <c r="I10">
-        <v>0.0342061262683083</v>
+        <v>0.02679859687721029</v>
       </c>
       <c r="J10">
-        <v>0.0342061262683083</v>
+        <v>0.0267985968772103</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.28453333333333</v>
+        <v>19.0165</v>
       </c>
       <c r="N10">
-        <v>69.8536</v>
+        <v>57.0495</v>
       </c>
       <c r="O10">
-        <v>0.2113666618031137</v>
+        <v>0.1829091260542996</v>
       </c>
       <c r="P10">
-        <v>0.2113666618031138</v>
+        <v>0.1829091260542996</v>
       </c>
       <c r="Q10">
-        <v>1226.240736845867</v>
+        <v>775.9941132458333</v>
       </c>
       <c r="R10">
-        <v>11036.1666316128</v>
+        <v>6983.9470192125</v>
       </c>
       <c r="S10">
-        <v>0.007230034722548125</v>
+        <v>0.004901707934292018</v>
       </c>
       <c r="T10">
-        <v>0.007230034722548125</v>
+        <v>0.004901707934292019</v>
       </c>
     </row>
   </sheetData>
